--- a/le15_p3_calls.xlsx
+++ b/le15_p3_calls.xlsx
@@ -5,25 +5,25 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rat Pup call analysis\litter le15 fmr1\p3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rat Pup call analysis\Analysis pathway\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7652E75-6555-4B8C-8692-B7DCCD1506C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5087FD4-3B27-45E7-8B69-9607BB01B400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4410" yWindow="165" windowWidth="22185" windowHeight="14340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$R$403</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$T$403</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="277">
   <si>
     <t>File</t>
   </si>
@@ -851,6 +851,9 @@
   </si>
   <si>
     <t>KO</t>
+  </si>
+  <si>
+    <t>Rat</t>
   </si>
 </sst>
 </file>
@@ -1199,10 +1202,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S403"/>
+  <dimension ref="A1:T403"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="S313" sqref="S313:S403"/>
+    <sheetView tabSelected="1" topLeftCell="C367" workbookViewId="0">
+      <selection activeCell="Q391" sqref="Q391"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1227,7 +1230,7 @@
     <col min="18" max="18" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1285,8 +1288,11 @@
       <c r="S1" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="T1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1344,8 +1350,11 @@
       <c r="S2" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="3" spans="1:19">
+      <c r="T2">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1403,8 +1412,11 @@
       <c r="S3" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="4" spans="1:19">
+      <c r="T3">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1462,8 +1474,11 @@
       <c r="S4" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="5" spans="1:19">
+      <c r="T4">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1521,8 +1536,11 @@
       <c r="S5" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="6" spans="1:19">
+      <c r="T5">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -1580,8 +1598,11 @@
       <c r="S6" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="7" spans="1:19">
+      <c r="T6">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -1639,8 +1660,11 @@
       <c r="S7" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="8" spans="1:19">
+      <c r="T7">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -1698,8 +1722,11 @@
       <c r="S8" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="9" spans="1:19">
+      <c r="T8">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1757,8 +1784,11 @@
       <c r="S9" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="10" spans="1:19">
+      <c r="T9">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -1816,8 +1846,11 @@
       <c r="S10" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="11" spans="1:19">
+      <c r="T10">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -1875,8 +1908,11 @@
       <c r="S11" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="12" spans="1:19">
+      <c r="T11">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -1934,8 +1970,11 @@
       <c r="S12" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="13" spans="1:19">
+      <c r="T12">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -1993,8 +2032,11 @@
       <c r="S13" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="14" spans="1:19">
+      <c r="T13">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -2052,8 +2094,11 @@
       <c r="S14" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="15" spans="1:19">
+      <c r="T14">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -2111,8 +2156,11 @@
       <c r="S15" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="16" spans="1:19">
+      <c r="T15">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -2170,8 +2218,11 @@
       <c r="S16" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="17" spans="1:19">
+      <c r="T16">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -2229,8 +2280,11 @@
       <c r="S17" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="18" spans="1:19">
+      <c r="T17">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -2288,8 +2342,11 @@
       <c r="S18" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="19" spans="1:19">
+      <c r="T18">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -2347,8 +2404,11 @@
       <c r="S19" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="20" spans="1:19">
+      <c r="T19">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -2406,8 +2466,11 @@
       <c r="S20" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="21" spans="1:19">
+      <c r="T20">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -2465,8 +2528,11 @@
       <c r="S21" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="22" spans="1:19">
+      <c r="T21">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -2524,8 +2590,11 @@
       <c r="S22" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="23" spans="1:19">
+      <c r="T22">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" t="s">
         <v>1</v>
       </c>
@@ -2583,8 +2652,11 @@
       <c r="S23" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="24" spans="1:19">
+      <c r="T23">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -2642,8 +2714,11 @@
       <c r="S24" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="25" spans="1:19">
+      <c r="T24">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" t="s">
         <v>1</v>
       </c>
@@ -2701,8 +2776,11 @@
       <c r="S25" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="26" spans="1:19">
+      <c r="T25">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -2760,8 +2838,11 @@
       <c r="S26" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="27" spans="1:19">
+      <c r="T26">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -2819,8 +2900,11 @@
       <c r="S27" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="28" spans="1:19">
+      <c r="T27">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
       <c r="A28" t="s">
         <v>1</v>
       </c>
@@ -2878,8 +2962,11 @@
       <c r="S28" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="29" spans="1:19">
+      <c r="T28">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
       <c r="A29" t="s">
         <v>1</v>
       </c>
@@ -2937,8 +3024,11 @@
       <c r="S29" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="30" spans="1:19">
+      <c r="T29">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -2996,8 +3086,11 @@
       <c r="S30" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="31" spans="1:19">
+      <c r="T30">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
       <c r="A31" t="s">
         <v>1</v>
       </c>
@@ -3055,8 +3148,11 @@
       <c r="S31" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="32" spans="1:19">
+      <c r="T31">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
       <c r="A32" t="s">
         <v>1</v>
       </c>
@@ -3114,8 +3210,11 @@
       <c r="S32" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="33" spans="1:19">
+      <c r="T32">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
       <c r="A33" t="s">
         <v>1</v>
       </c>
@@ -3173,8 +3272,11 @@
       <c r="S33" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="34" spans="1:19">
+      <c r="T33">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
       <c r="A34" t="s">
         <v>1</v>
       </c>
@@ -3232,8 +3334,11 @@
       <c r="S34" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="35" spans="1:19">
+      <c r="T34">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
       <c r="A35" t="s">
         <v>1</v>
       </c>
@@ -3291,8 +3396,11 @@
       <c r="S35" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="36" spans="1:19">
+      <c r="T35">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
       <c r="A36" t="s">
         <v>1</v>
       </c>
@@ -3350,8 +3458,11 @@
       <c r="S36" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="37" spans="1:19">
+      <c r="T36">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
       <c r="A37" t="s">
         <v>1</v>
       </c>
@@ -3409,8 +3520,11 @@
       <c r="S37" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="38" spans="1:19">
+      <c r="T37">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
       <c r="A38" t="s">
         <v>1</v>
       </c>
@@ -3468,8 +3582,11 @@
       <c r="S38" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="39" spans="1:19">
+      <c r="T38">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
       <c r="A39" t="s">
         <v>1</v>
       </c>
@@ -3527,8 +3644,11 @@
       <c r="S39" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="40" spans="1:19">
+      <c r="T39">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
       <c r="A40" t="s">
         <v>1</v>
       </c>
@@ -3586,8 +3706,11 @@
       <c r="S40" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="41" spans="1:19">
+      <c r="T40">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
       <c r="A41" t="s">
         <v>1</v>
       </c>
@@ -3645,8 +3768,11 @@
       <c r="S41" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="42" spans="1:19">
+      <c r="T41">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
       <c r="A42" t="s">
         <v>1</v>
       </c>
@@ -3704,8 +3830,11 @@
       <c r="S42" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="43" spans="1:19">
+      <c r="T42">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20">
       <c r="A43" t="s">
         <v>1</v>
       </c>
@@ -3763,8 +3892,11 @@
       <c r="S43" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="44" spans="1:19">
+      <c r="T43">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20">
       <c r="A44" t="s">
         <v>1</v>
       </c>
@@ -3822,8 +3954,11 @@
       <c r="S44" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="45" spans="1:19">
+      <c r="T44">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20">
       <c r="A45" t="s">
         <v>1</v>
       </c>
@@ -3881,8 +4016,11 @@
       <c r="S45" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="46" spans="1:19">
+      <c r="T45">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20">
       <c r="A46" t="s">
         <v>1</v>
       </c>
@@ -3940,8 +4078,11 @@
       <c r="S46" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="47" spans="1:19">
+      <c r="T46">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20">
       <c r="A47" t="s">
         <v>1</v>
       </c>
@@ -3999,8 +4140,11 @@
       <c r="S47" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="48" spans="1:19">
+      <c r="T47">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20">
       <c r="A48" t="s">
         <v>1</v>
       </c>
@@ -4058,8 +4202,11 @@
       <c r="S48" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="49" spans="1:19">
+      <c r="T48">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20">
       <c r="A49" t="s">
         <v>1</v>
       </c>
@@ -4117,8 +4264,11 @@
       <c r="S49" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="50" spans="1:19">
+      <c r="T49">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20">
       <c r="A50" t="s">
         <v>1</v>
       </c>
@@ -4176,8 +4326,11 @@
       <c r="S50" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="51" spans="1:19">
+      <c r="T50">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20">
       <c r="A51" t="s">
         <v>1</v>
       </c>
@@ -4235,8 +4388,11 @@
       <c r="S51" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="52" spans="1:19">
+      <c r="T51">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20">
       <c r="A52" t="s">
         <v>1</v>
       </c>
@@ -4294,8 +4450,11 @@
       <c r="S52" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="53" spans="1:19">
+      <c r="T52">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20">
       <c r="A53" t="s">
         <v>1</v>
       </c>
@@ -4353,8 +4512,11 @@
       <c r="S53" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="54" spans="1:19">
+      <c r="T53">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20">
       <c r="A54" t="s">
         <v>1</v>
       </c>
@@ -4412,8 +4574,11 @@
       <c r="S54" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="55" spans="1:19">
+      <c r="T54">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20">
       <c r="A55" t="s">
         <v>1</v>
       </c>
@@ -4471,8 +4636,11 @@
       <c r="S55" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="56" spans="1:19">
+      <c r="T55">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20">
       <c r="A56" t="s">
         <v>1</v>
       </c>
@@ -4530,8 +4698,11 @@
       <c r="S56" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="57" spans="1:19">
+      <c r="T56">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20">
       <c r="A57" t="s">
         <v>1</v>
       </c>
@@ -4589,8 +4760,11 @@
       <c r="S57" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="58" spans="1:19">
+      <c r="T57">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20">
       <c r="A58" t="s">
         <v>1</v>
       </c>
@@ -4648,8 +4822,11 @@
       <c r="S58" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="59" spans="1:19">
+      <c r="T58">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20">
       <c r="A59" t="s">
         <v>1</v>
       </c>
@@ -4707,8 +4884,11 @@
       <c r="S59" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="60" spans="1:19">
+      <c r="T59">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20">
       <c r="A60" t="s">
         <v>1</v>
       </c>
@@ -4766,8 +4946,11 @@
       <c r="S60" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="61" spans="1:19">
+      <c r="T60">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20">
       <c r="A61" t="s">
         <v>1</v>
       </c>
@@ -4825,8 +5008,11 @@
       <c r="S61" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="62" spans="1:19">
+      <c r="T61">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20">
       <c r="A62" t="s">
         <v>1</v>
       </c>
@@ -4884,8 +5070,11 @@
       <c r="S62" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="63" spans="1:19">
+      <c r="T62">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20">
       <c r="A63" t="s">
         <v>1</v>
       </c>
@@ -4943,8 +5132,11 @@
       <c r="S63" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="64" spans="1:19">
+      <c r="T63">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20">
       <c r="A64" t="s">
         <v>1</v>
       </c>
@@ -5002,8 +5194,11 @@
       <c r="S64" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="65" spans="1:19">
+      <c r="T64">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20">
       <c r="A65" t="s">
         <v>1</v>
       </c>
@@ -5061,8 +5256,11 @@
       <c r="S65" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="66" spans="1:19">
+      <c r="T65">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20">
       <c r="A66" t="s">
         <v>1</v>
       </c>
@@ -5120,8 +5318,11 @@
       <c r="S66" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="67" spans="1:19">
+      <c r="T66">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20">
       <c r="A67" t="s">
         <v>1</v>
       </c>
@@ -5179,8 +5380,11 @@
       <c r="S67" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="68" spans="1:19">
+      <c r="T67">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20">
       <c r="A68" t="s">
         <v>1</v>
       </c>
@@ -5238,8 +5442,11 @@
       <c r="S68" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="69" spans="1:19">
+      <c r="T68">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20">
       <c r="A69" t="s">
         <v>1</v>
       </c>
@@ -5297,8 +5504,11 @@
       <c r="S69" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="70" spans="1:19">
+      <c r="T69">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20">
       <c r="A70" t="s">
         <v>1</v>
       </c>
@@ -5356,8 +5566,11 @@
       <c r="S70" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="71" spans="1:19">
+      <c r="T70">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20">
       <c r="A71" t="s">
         <v>1</v>
       </c>
@@ -5415,8 +5628,11 @@
       <c r="S71" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="72" spans="1:19">
+      <c r="T71">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20">
       <c r="A72" t="s">
         <v>1</v>
       </c>
@@ -5474,8 +5690,11 @@
       <c r="S72" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="73" spans="1:19">
+      <c r="T72">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20">
       <c r="A73" t="s">
         <v>1</v>
       </c>
@@ -5533,8 +5752,11 @@
       <c r="S73" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="74" spans="1:19">
+      <c r="T73">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20">
       <c r="A74" t="s">
         <v>1</v>
       </c>
@@ -5592,8 +5814,11 @@
       <c r="S74" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="75" spans="1:19">
+      <c r="T74">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20">
       <c r="A75" t="s">
         <v>1</v>
       </c>
@@ -5651,8 +5876,11 @@
       <c r="S75" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="76" spans="1:19">
+      <c r="T75">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20">
       <c r="A76" t="s">
         <v>1</v>
       </c>
@@ -5710,8 +5938,11 @@
       <c r="S76" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="77" spans="1:19">
+      <c r="T76">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20">
       <c r="A77" t="s">
         <v>1</v>
       </c>
@@ -5769,8 +6000,11 @@
       <c r="S77" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="78" spans="1:19">
+      <c r="T77">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20">
       <c r="A78" t="s">
         <v>1</v>
       </c>
@@ -5828,8 +6062,11 @@
       <c r="S78" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="79" spans="1:19">
+      <c r="T78">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20">
       <c r="A79" t="s">
         <v>1</v>
       </c>
@@ -5887,8 +6124,11 @@
       <c r="S79" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="80" spans="1:19">
+      <c r="T79">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20">
       <c r="A80" t="s">
         <v>1</v>
       </c>
@@ -5946,8 +6186,11 @@
       <c r="S80" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="81" spans="1:19">
+      <c r="T80">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20">
       <c r="A81" t="s">
         <v>1</v>
       </c>
@@ -6005,8 +6248,11 @@
       <c r="S81" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="82" spans="1:19">
+      <c r="T81">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20">
       <c r="A82" t="s">
         <v>1</v>
       </c>
@@ -6064,8 +6310,11 @@
       <c r="S82" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="83" spans="1:19">
+      <c r="T82">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20">
       <c r="A83" t="s">
         <v>1</v>
       </c>
@@ -6123,8 +6372,11 @@
       <c r="S83" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="84" spans="1:19">
+      <c r="T83">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20">
       <c r="A84" t="s">
         <v>1</v>
       </c>
@@ -6182,8 +6434,11 @@
       <c r="S84" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="85" spans="1:19">
+      <c r="T84">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20">
       <c r="A85" t="s">
         <v>1</v>
       </c>
@@ -6241,8 +6496,11 @@
       <c r="S85" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="86" spans="1:19">
+      <c r="T85">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20">
       <c r="A86" t="s">
         <v>1</v>
       </c>
@@ -6300,8 +6558,11 @@
       <c r="S86" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="87" spans="1:19">
+      <c r="T86">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20">
       <c r="A87" t="s">
         <v>1</v>
       </c>
@@ -6359,8 +6620,11 @@
       <c r="S87" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="88" spans="1:19">
+      <c r="T87">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20">
       <c r="A88" t="s">
         <v>1</v>
       </c>
@@ -6418,8 +6682,11 @@
       <c r="S88" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="89" spans="1:19">
+      <c r="T88">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20">
       <c r="A89" t="s">
         <v>1</v>
       </c>
@@ -6477,8 +6744,11 @@
       <c r="S89" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="90" spans="1:19">
+      <c r="T89">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20">
       <c r="A90" t="s">
         <v>1</v>
       </c>
@@ -6536,8 +6806,11 @@
       <c r="S90" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="91" spans="1:19">
+      <c r="T90">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20">
       <c r="A91" t="s">
         <v>1</v>
       </c>
@@ -6595,8 +6868,11 @@
       <c r="S91" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="92" spans="1:19">
+      <c r="T91">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20">
       <c r="A92" t="s">
         <v>1</v>
       </c>
@@ -6654,8 +6930,11 @@
       <c r="S92" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="93" spans="1:19">
+      <c r="T92">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20">
       <c r="A93" t="s">
         <v>1</v>
       </c>
@@ -6713,8 +6992,11 @@
       <c r="S93" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="94" spans="1:19">
+      <c r="T93">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20">
       <c r="A94" t="s">
         <v>1</v>
       </c>
@@ -6772,8 +7054,11 @@
       <c r="S94" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="95" spans="1:19">
+      <c r="T94">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20">
       <c r="A95" t="s">
         <v>1</v>
       </c>
@@ -6831,8 +7116,11 @@
       <c r="S95" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="96" spans="1:19">
+      <c r="T95">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20">
       <c r="A96" t="s">
         <v>1</v>
       </c>
@@ -6890,8 +7178,11 @@
       <c r="S96" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="97" spans="1:19">
+      <c r="T96">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20">
       <c r="A97" t="s">
         <v>1</v>
       </c>
@@ -6949,8 +7240,11 @@
       <c r="S97" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="98" spans="1:19">
+      <c r="T97">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20">
       <c r="A98" t="s">
         <v>1</v>
       </c>
@@ -7008,8 +7302,11 @@
       <c r="S98" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="99" spans="1:19">
+      <c r="T98">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20">
       <c r="A99" t="s">
         <v>1</v>
       </c>
@@ -7067,8 +7364,11 @@
       <c r="S99" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="100" spans="1:19">
+      <c r="T99">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20">
       <c r="A100" t="s">
         <v>1</v>
       </c>
@@ -7126,8 +7426,11 @@
       <c r="S100" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="101" spans="1:19">
+      <c r="T100">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20">
       <c r="A101" t="s">
         <v>1</v>
       </c>
@@ -7185,8 +7488,11 @@
       <c r="S101" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="102" spans="1:19">
+      <c r="T101">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20">
       <c r="A102" t="s">
         <v>1</v>
       </c>
@@ -7244,8 +7550,11 @@
       <c r="S102" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="103" spans="1:19">
+      <c r="T102">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20">
       <c r="A103" t="s">
         <v>1</v>
       </c>
@@ -7303,8 +7612,11 @@
       <c r="S103" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="104" spans="1:19">
+      <c r="T103">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20">
       <c r="A104" t="s">
         <v>1</v>
       </c>
@@ -7362,8 +7674,11 @@
       <c r="S104" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="105" spans="1:19">
+      <c r="T104">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20">
       <c r="A105" t="s">
         <v>1</v>
       </c>
@@ -7421,8 +7736,11 @@
       <c r="S105" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="106" spans="1:19">
+      <c r="T105">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20">
       <c r="A106" t="s">
         <v>1</v>
       </c>
@@ -7480,8 +7798,11 @@
       <c r="S106" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="107" spans="1:19">
+      <c r="T106">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20">
       <c r="A107" t="s">
         <v>1</v>
       </c>
@@ -7539,8 +7860,11 @@
       <c r="S107" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="108" spans="1:19">
+      <c r="T107">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20">
       <c r="A108" t="s">
         <v>1</v>
       </c>
@@ -7598,8 +7922,11 @@
       <c r="S108" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="109" spans="1:19">
+      <c r="T108">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20">
       <c r="A109" t="s">
         <v>1</v>
       </c>
@@ -7657,8 +7984,11 @@
       <c r="S109" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="110" spans="1:19">
+      <c r="T109">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20">
       <c r="A110" t="s">
         <v>1</v>
       </c>
@@ -7716,8 +8046,11 @@
       <c r="S110" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="111" spans="1:19">
+      <c r="T110">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20">
       <c r="A111" t="s">
         <v>1</v>
       </c>
@@ -7775,8 +8108,11 @@
       <c r="S111" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="112" spans="1:19">
+      <c r="T111">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20">
       <c r="A112" t="s">
         <v>1</v>
       </c>
@@ -7834,8 +8170,11 @@
       <c r="S112" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="113" spans="1:19">
+      <c r="T112">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20">
       <c r="A113" t="s">
         <v>1</v>
       </c>
@@ -7893,8 +8232,11 @@
       <c r="S113" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="114" spans="1:19">
+      <c r="T113">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20">
       <c r="A114" t="s">
         <v>1</v>
       </c>
@@ -7952,8 +8294,11 @@
       <c r="S114" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="115" spans="1:19">
+      <c r="T114">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20">
       <c r="A115" t="s">
         <v>1</v>
       </c>
@@ -8011,8 +8356,11 @@
       <c r="S115" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="116" spans="1:19">
+      <c r="T115">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20">
       <c r="A116" t="s">
         <v>1</v>
       </c>
@@ -8070,8 +8418,11 @@
       <c r="S116" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="117" spans="1:19">
+      <c r="T116">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20">
       <c r="A117" t="s">
         <v>1</v>
       </c>
@@ -8129,8 +8480,11 @@
       <c r="S117" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="118" spans="1:19">
+      <c r="T117">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20">
       <c r="A118" t="s">
         <v>1</v>
       </c>
@@ -8188,8 +8542,11 @@
       <c r="S118" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="119" spans="1:19">
+      <c r="T118">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20">
       <c r="A119" t="s">
         <v>1</v>
       </c>
@@ -8247,8 +8604,11 @@
       <c r="S119" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="120" spans="1:19">
+      <c r="T119">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20">
       <c r="A120" t="s">
         <v>1</v>
       </c>
@@ -8306,8 +8666,11 @@
       <c r="S120" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="121" spans="1:19">
+      <c r="T120">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20">
       <c r="A121" t="s">
         <v>1</v>
       </c>
@@ -8365,8 +8728,11 @@
       <c r="S121" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="122" spans="1:19">
+      <c r="T121">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20">
       <c r="A122" t="s">
         <v>1</v>
       </c>
@@ -8424,8 +8790,11 @@
       <c r="S122" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="123" spans="1:19">
+      <c r="T122">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20">
       <c r="A123" t="s">
         <v>1</v>
       </c>
@@ -8483,8 +8852,11 @@
       <c r="S123" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="124" spans="1:19">
+      <c r="T123">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20">
       <c r="A124" t="s">
         <v>1</v>
       </c>
@@ -8542,8 +8914,11 @@
       <c r="S124" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="125" spans="1:19">
+      <c r="T124">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="125" spans="1:20">
       <c r="A125" t="s">
         <v>1</v>
       </c>
@@ -8601,8 +8976,11 @@
       <c r="S125" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="126" spans="1:19">
+      <c r="T125">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="126" spans="1:20">
       <c r="A126" t="s">
         <v>1</v>
       </c>
@@ -8660,8 +9038,11 @@
       <c r="S126" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="127" spans="1:19">
+      <c r="T126">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="127" spans="1:20">
       <c r="A127" t="s">
         <v>1</v>
       </c>
@@ -8719,8 +9100,11 @@
       <c r="S127" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="128" spans="1:19">
+      <c r="T127">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="128" spans="1:20">
       <c r="A128" t="s">
         <v>1</v>
       </c>
@@ -8778,8 +9162,11 @@
       <c r="S128" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="129" spans="1:19">
+      <c r="T128">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="129" spans="1:20">
       <c r="A129" t="s">
         <v>1</v>
       </c>
@@ -8837,8 +9224,11 @@
       <c r="S129" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="130" spans="1:19">
+      <c r="T129">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="130" spans="1:20">
       <c r="A130" t="s">
         <v>1</v>
       </c>
@@ -8896,8 +9286,11 @@
       <c r="S130" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="131" spans="1:19">
+      <c r="T130">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="131" spans="1:20">
       <c r="A131" t="s">
         <v>1</v>
       </c>
@@ -8955,8 +9348,11 @@
       <c r="S131" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="132" spans="1:19">
+      <c r="T131">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="132" spans="1:20">
       <c r="A132" t="s">
         <v>1</v>
       </c>
@@ -9014,8 +9410,11 @@
       <c r="S132" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="133" spans="1:19">
+      <c r="T132">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="133" spans="1:20">
       <c r="A133" t="s">
         <v>1</v>
       </c>
@@ -9073,8 +9472,11 @@
       <c r="S133" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="134" spans="1:19">
+      <c r="T133">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="134" spans="1:20">
       <c r="A134" t="s">
         <v>1</v>
       </c>
@@ -9132,8 +9534,11 @@
       <c r="S134" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="135" spans="1:19">
+      <c r="T134">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="135" spans="1:20">
       <c r="A135" t="s">
         <v>1</v>
       </c>
@@ -9191,8 +9596,11 @@
       <c r="S135" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="136" spans="1:19">
+      <c r="T135">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="136" spans="1:20">
       <c r="A136" t="s">
         <v>1</v>
       </c>
@@ -9250,8 +9658,11 @@
       <c r="S136" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="137" spans="1:19">
+      <c r="T136">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="137" spans="1:20">
       <c r="A137" t="s">
         <v>1</v>
       </c>
@@ -9309,8 +9720,11 @@
       <c r="S137" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="138" spans="1:19">
+      <c r="T137">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="138" spans="1:20">
       <c r="A138" t="s">
         <v>1</v>
       </c>
@@ -9368,8 +9782,11 @@
       <c r="S138" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="139" spans="1:19">
+      <c r="T138">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="139" spans="1:20">
       <c r="A139" t="s">
         <v>1</v>
       </c>
@@ -9427,8 +9844,11 @@
       <c r="S139" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="140" spans="1:19">
+      <c r="T139">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="140" spans="1:20">
       <c r="A140" t="s">
         <v>1</v>
       </c>
@@ -9486,8 +9906,11 @@
       <c r="S140" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="141" spans="1:19">
+      <c r="T140">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="141" spans="1:20">
       <c r="A141" t="s">
         <v>1</v>
       </c>
@@ -9545,8 +9968,11 @@
       <c r="S141" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="142" spans="1:19">
+      <c r="T141">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="142" spans="1:20">
       <c r="A142" t="s">
         <v>1</v>
       </c>
@@ -9604,8 +10030,11 @@
       <c r="S142" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="143" spans="1:19">
+      <c r="T142">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="143" spans="1:20">
       <c r="A143" t="s">
         <v>1</v>
       </c>
@@ -9663,8 +10092,11 @@
       <c r="S143" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="144" spans="1:19">
+      <c r="T143">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="144" spans="1:20">
       <c r="A144" t="s">
         <v>1</v>
       </c>
@@ -9722,8 +10154,11 @@
       <c r="S144" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="145" spans="1:19">
+      <c r="T144">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="145" spans="1:20">
       <c r="A145" t="s">
         <v>1</v>
       </c>
@@ -9781,8 +10216,11 @@
       <c r="S145" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="146" spans="1:19">
+      <c r="T145">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="146" spans="1:20">
       <c r="A146" t="s">
         <v>1</v>
       </c>
@@ -9840,8 +10278,11 @@
       <c r="S146" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="147" spans="1:19">
+      <c r="T146">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="147" spans="1:20">
       <c r="A147" t="s">
         <v>1</v>
       </c>
@@ -9899,8 +10340,11 @@
       <c r="S147" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="148" spans="1:19">
+      <c r="T147">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="148" spans="1:20">
       <c r="A148" t="s">
         <v>1</v>
       </c>
@@ -9958,8 +10402,11 @@
       <c r="S148" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="149" spans="1:19">
+      <c r="T148">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="149" spans="1:20">
       <c r="A149" t="s">
         <v>1</v>
       </c>
@@ -10017,8 +10464,11 @@
       <c r="S149" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="150" spans="1:19">
+      <c r="T149">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="150" spans="1:20">
       <c r="A150" t="s">
         <v>1</v>
       </c>
@@ -10076,8 +10526,11 @@
       <c r="S150" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="151" spans="1:19">
+      <c r="T150">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="151" spans="1:20">
       <c r="A151" t="s">
         <v>1</v>
       </c>
@@ -10135,8 +10588,11 @@
       <c r="S151" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="152" spans="1:19">
+      <c r="T151">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="152" spans="1:20">
       <c r="A152" t="s">
         <v>1</v>
       </c>
@@ -10194,8 +10650,11 @@
       <c r="S152" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="153" spans="1:19">
+      <c r="T152">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="153" spans="1:20">
       <c r="A153" t="s">
         <v>1</v>
       </c>
@@ -10253,8 +10712,11 @@
       <c r="S153" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="154" spans="1:19">
+      <c r="T153">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="154" spans="1:20">
       <c r="A154" t="s">
         <v>1</v>
       </c>
@@ -10312,8 +10774,11 @@
       <c r="S154" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="155" spans="1:19">
+      <c r="T154">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="155" spans="1:20">
       <c r="A155" t="s">
         <v>1</v>
       </c>
@@ -10371,8 +10836,11 @@
       <c r="S155" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="156" spans="1:19">
+      <c r="T155">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="156" spans="1:20">
       <c r="A156" t="s">
         <v>1</v>
       </c>
@@ -10430,8 +10898,11 @@
       <c r="S156" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="157" spans="1:19">
+      <c r="T156">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="157" spans="1:20">
       <c r="A157" t="s">
         <v>1</v>
       </c>
@@ -10489,8 +10960,11 @@
       <c r="S157" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="158" spans="1:19">
+      <c r="T157">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="158" spans="1:20">
       <c r="A158" t="s">
         <v>1</v>
       </c>
@@ -10548,8 +11022,11 @@
       <c r="S158" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="159" spans="1:19">
+      <c r="T158">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="159" spans="1:20">
       <c r="A159" t="s">
         <v>1</v>
       </c>
@@ -10607,8 +11084,11 @@
       <c r="S159" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="160" spans="1:19">
+      <c r="T159">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="160" spans="1:20">
       <c r="A160" t="s">
         <v>1</v>
       </c>
@@ -10666,8 +11146,11 @@
       <c r="S160" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="161" spans="1:19">
+      <c r="T160">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="161" spans="1:20">
       <c r="A161" t="s">
         <v>1</v>
       </c>
@@ -10725,8 +11208,11 @@
       <c r="S161" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="162" spans="1:19">
+      <c r="T161">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="162" spans="1:20">
       <c r="A162" t="s">
         <v>1</v>
       </c>
@@ -10784,8 +11270,11 @@
       <c r="S162" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="163" spans="1:19">
+      <c r="T162">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="163" spans="1:20">
       <c r="A163" t="s">
         <v>1</v>
       </c>
@@ -10843,8 +11332,11 @@
       <c r="S163" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="164" spans="1:19">
+      <c r="T163">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="164" spans="1:20">
       <c r="A164" t="s">
         <v>1</v>
       </c>
@@ -10902,8 +11394,11 @@
       <c r="S164" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="165" spans="1:19">
+      <c r="T164">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="165" spans="1:20">
       <c r="A165" t="s">
         <v>1</v>
       </c>
@@ -10961,8 +11456,11 @@
       <c r="S165" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="166" spans="1:19">
+      <c r="T165">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="166" spans="1:20">
       <c r="A166" t="s">
         <v>1</v>
       </c>
@@ -11020,8 +11518,11 @@
       <c r="S166" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="167" spans="1:19">
+      <c r="T166">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="167" spans="1:20">
       <c r="A167" t="s">
         <v>1</v>
       </c>
@@ -11079,8 +11580,11 @@
       <c r="S167" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="168" spans="1:19">
+      <c r="T167">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="168" spans="1:20">
       <c r="A168" t="s">
         <v>1</v>
       </c>
@@ -11138,8 +11642,11 @@
       <c r="S168" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="169" spans="1:19">
+      <c r="T168">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="169" spans="1:20">
       <c r="A169" t="s">
         <v>1</v>
       </c>
@@ -11197,8 +11704,11 @@
       <c r="S169" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="170" spans="1:19">
+      <c r="T169">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="170" spans="1:20">
       <c r="A170" t="s">
         <v>1</v>
       </c>
@@ -11256,8 +11766,11 @@
       <c r="S170" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="171" spans="1:19">
+      <c r="T170">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="171" spans="1:20">
       <c r="A171" t="s">
         <v>1</v>
       </c>
@@ -11315,8 +11828,11 @@
       <c r="S171" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="172" spans="1:19">
+      <c r="T171">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="172" spans="1:20">
       <c r="A172" t="s">
         <v>1</v>
       </c>
@@ -11374,8 +11890,11 @@
       <c r="S172" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="173" spans="1:19">
+      <c r="T172">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="173" spans="1:20">
       <c r="A173" t="s">
         <v>1</v>
       </c>
@@ -11433,8 +11952,11 @@
       <c r="S173" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="174" spans="1:19">
+      <c r="T173">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="174" spans="1:20">
       <c r="A174" t="s">
         <v>1</v>
       </c>
@@ -11492,8 +12014,11 @@
       <c r="S174" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="175" spans="1:19">
+      <c r="T174">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="175" spans="1:20">
       <c r="A175" t="s">
         <v>1</v>
       </c>
@@ -11551,8 +12076,11 @@
       <c r="S175" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="176" spans="1:19">
+      <c r="T175">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="176" spans="1:20">
       <c r="A176" t="s">
         <v>1</v>
       </c>
@@ -11610,8 +12138,11 @@
       <c r="S176" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="177" spans="1:19">
+      <c r="T176">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="177" spans="1:20">
       <c r="A177" t="s">
         <v>1</v>
       </c>
@@ -11669,8 +12200,11 @@
       <c r="S177" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="178" spans="1:19">
+      <c r="T177">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="178" spans="1:20">
       <c r="A178" t="s">
         <v>1</v>
       </c>
@@ -11728,8 +12262,11 @@
       <c r="S178" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="179" spans="1:19">
+      <c r="T178">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="179" spans="1:20">
       <c r="A179" t="s">
         <v>1</v>
       </c>
@@ -11787,8 +12324,11 @@
       <c r="S179" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="180" spans="1:19">
+      <c r="T179">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="180" spans="1:20">
       <c r="A180" t="s">
         <v>1</v>
       </c>
@@ -11846,8 +12386,11 @@
       <c r="S180" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="181" spans="1:19">
+      <c r="T180">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="181" spans="1:20">
       <c r="A181" t="s">
         <v>1</v>
       </c>
@@ -11905,8 +12448,11 @@
       <c r="S181" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="182" spans="1:19">
+      <c r="T181">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="182" spans="1:20">
       <c r="A182" t="s">
         <v>1</v>
       </c>
@@ -11964,8 +12510,11 @@
       <c r="S182" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="183" spans="1:19">
+      <c r="T182">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="183" spans="1:20">
       <c r="A183" t="s">
         <v>1</v>
       </c>
@@ -12023,8 +12572,11 @@
       <c r="S183" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="184" spans="1:19">
+      <c r="T183">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="184" spans="1:20">
       <c r="A184" t="s">
         <v>1</v>
       </c>
@@ -12082,8 +12634,11 @@
       <c r="S184" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="185" spans="1:19">
+      <c r="T184">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="185" spans="1:20">
       <c r="A185" t="s">
         <v>1</v>
       </c>
@@ -12141,8 +12696,11 @@
       <c r="S185" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="186" spans="1:19">
+      <c r="T185">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="186" spans="1:20">
       <c r="A186" t="s">
         <v>1</v>
       </c>
@@ -12200,8 +12758,11 @@
       <c r="S186" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="187" spans="1:19">
+      <c r="T186">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="187" spans="1:20">
       <c r="A187" t="s">
         <v>1</v>
       </c>
@@ -12259,8 +12820,11 @@
       <c r="S187" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="188" spans="1:19">
+      <c r="T187">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="188" spans="1:20">
       <c r="A188" t="s">
         <v>1</v>
       </c>
@@ -12318,8 +12882,11 @@
       <c r="S188" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="189" spans="1:19">
+      <c r="T188">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="189" spans="1:20">
       <c r="A189" t="s">
         <v>1</v>
       </c>
@@ -12377,8 +12944,11 @@
       <c r="S189" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="190" spans="1:19">
+      <c r="T189">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="190" spans="1:20">
       <c r="A190" t="s">
         <v>1</v>
       </c>
@@ -12436,8 +13006,11 @@
       <c r="S190" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="191" spans="1:19">
+      <c r="T190">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="191" spans="1:20">
       <c r="A191" t="s">
         <v>1</v>
       </c>
@@ -12495,8 +13068,11 @@
       <c r="S191" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="192" spans="1:19">
+      <c r="T191">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="192" spans="1:20">
       <c r="A192" t="s">
         <v>1</v>
       </c>
@@ -12554,8 +13130,11 @@
       <c r="S192" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="193" spans="1:19">
+      <c r="T192">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="193" spans="1:20">
       <c r="A193" t="s">
         <v>1</v>
       </c>
@@ -12613,8 +13192,11 @@
       <c r="S193" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="194" spans="1:19">
+      <c r="T193">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="194" spans="1:20">
       <c r="A194" t="s">
         <v>1</v>
       </c>
@@ -12672,8 +13254,11 @@
       <c r="S194" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="195" spans="1:19">
+      <c r="T194">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="195" spans="1:20">
       <c r="A195" t="s">
         <v>1</v>
       </c>
@@ -12731,8 +13316,11 @@
       <c r="S195" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="196" spans="1:19">
+      <c r="T195">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="196" spans="1:20">
       <c r="A196" t="s">
         <v>1</v>
       </c>
@@ -12790,8 +13378,11 @@
       <c r="S196" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="197" spans="1:19">
+      <c r="T196">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="197" spans="1:20">
       <c r="A197" t="s">
         <v>1</v>
       </c>
@@ -12849,8 +13440,11 @@
       <c r="S197" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="198" spans="1:19">
+      <c r="T197">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="198" spans="1:20">
       <c r="A198" t="s">
         <v>1</v>
       </c>
@@ -12908,8 +13502,11 @@
       <c r="S198" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="199" spans="1:19">
+      <c r="T198">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="199" spans="1:20">
       <c r="A199" t="s">
         <v>1</v>
       </c>
@@ -12967,8 +13564,11 @@
       <c r="S199" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="200" spans="1:19">
+      <c r="T199">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="200" spans="1:20">
       <c r="A200" t="s">
         <v>1</v>
       </c>
@@ -13026,8 +13626,11 @@
       <c r="S200" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="201" spans="1:19">
+      <c r="T200">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="201" spans="1:20">
       <c r="A201" t="s">
         <v>1</v>
       </c>
@@ -13085,8 +13688,11 @@
       <c r="S201" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="202" spans="1:19">
+      <c r="T201">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="202" spans="1:20">
       <c r="A202" t="s">
         <v>1</v>
       </c>
@@ -13144,8 +13750,11 @@
       <c r="S202" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="203" spans="1:19">
+      <c r="T202">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="203" spans="1:20">
       <c r="A203" t="s">
         <v>1</v>
       </c>
@@ -13203,8 +13812,11 @@
       <c r="S203" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="204" spans="1:19">
+      <c r="T203">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="204" spans="1:20">
       <c r="A204" t="s">
         <v>1</v>
       </c>
@@ -13262,8 +13874,11 @@
       <c r="S204" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="205" spans="1:19">
+      <c r="T204">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="205" spans="1:20">
       <c r="A205" t="s">
         <v>1</v>
       </c>
@@ -13321,8 +13936,11 @@
       <c r="S205" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="206" spans="1:19">
+      <c r="T205">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="206" spans="1:20">
       <c r="A206" t="s">
         <v>1</v>
       </c>
@@ -13380,8 +13998,11 @@
       <c r="S206" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="207" spans="1:19">
+      <c r="T206">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="207" spans="1:20">
       <c r="A207" t="s">
         <v>1</v>
       </c>
@@ -13439,8 +14060,11 @@
       <c r="S207" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="208" spans="1:19">
+      <c r="T207">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="208" spans="1:20">
       <c r="A208" t="s">
         <v>1</v>
       </c>
@@ -13498,8 +14122,11 @@
       <c r="S208" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="209" spans="1:19">
+      <c r="T208">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="209" spans="1:20">
       <c r="A209" t="s">
         <v>1</v>
       </c>
@@ -13557,8 +14184,11 @@
       <c r="S209" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="210" spans="1:19">
+      <c r="T209">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="210" spans="1:20">
       <c r="A210" t="s">
         <v>1</v>
       </c>
@@ -13616,8 +14246,11 @@
       <c r="S210" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="211" spans="1:19">
+      <c r="T210">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="211" spans="1:20">
       <c r="A211" t="s">
         <v>1</v>
       </c>
@@ -13675,8 +14308,11 @@
       <c r="S211" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="212" spans="1:19">
+      <c r="T211">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="212" spans="1:20">
       <c r="A212" t="s">
         <v>1</v>
       </c>
@@ -13734,8 +14370,11 @@
       <c r="S212" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="213" spans="1:19">
+      <c r="T212">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="213" spans="1:20">
       <c r="A213" t="s">
         <v>1</v>
       </c>
@@ -13793,8 +14432,11 @@
       <c r="S213" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="214" spans="1:19">
+      <c r="T213">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="214" spans="1:20">
       <c r="A214" t="s">
         <v>1</v>
       </c>
@@ -13852,8 +14494,11 @@
       <c r="S214" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="215" spans="1:19">
+      <c r="T214">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="215" spans="1:20">
       <c r="A215" t="s">
         <v>1</v>
       </c>
@@ -13911,8 +14556,11 @@
       <c r="S215" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="216" spans="1:19">
+      <c r="T215">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="216" spans="1:20">
       <c r="A216" t="s">
         <v>1</v>
       </c>
@@ -13970,8 +14618,11 @@
       <c r="S216" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="217" spans="1:19">
+      <c r="T216">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="217" spans="1:20">
       <c r="A217" t="s">
         <v>1</v>
       </c>
@@ -14029,8 +14680,11 @@
       <c r="S217" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="218" spans="1:19">
+      <c r="T217">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="218" spans="1:20">
       <c r="A218" t="s">
         <v>1</v>
       </c>
@@ -14088,8 +14742,11 @@
       <c r="S218" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="219" spans="1:19">
+      <c r="T218">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="219" spans="1:20">
       <c r="A219" t="s">
         <v>1</v>
       </c>
@@ -14147,8 +14804,11 @@
       <c r="S219" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="220" spans="1:19">
+      <c r="T219">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="220" spans="1:20">
       <c r="A220" t="s">
         <v>1</v>
       </c>
@@ -14206,8 +14866,11 @@
       <c r="S220" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="221" spans="1:19">
+      <c r="T220">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="221" spans="1:20">
       <c r="A221" t="s">
         <v>1</v>
       </c>
@@ -14265,8 +14928,11 @@
       <c r="S221" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="222" spans="1:19">
+      <c r="T221">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="222" spans="1:20">
       <c r="A222" t="s">
         <v>1</v>
       </c>
@@ -14324,8 +14990,11 @@
       <c r="S222" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="223" spans="1:19">
+      <c r="T222">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="223" spans="1:20">
       <c r="A223" t="s">
         <v>1</v>
       </c>
@@ -14383,8 +15052,11 @@
       <c r="S223" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="224" spans="1:19">
+      <c r="T223">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="224" spans="1:20">
       <c r="A224" t="s">
         <v>1</v>
       </c>
@@ -14442,8 +15114,11 @@
       <c r="S224" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="225" spans="1:19">
+      <c r="T224">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="225" spans="1:20">
       <c r="A225" t="s">
         <v>1</v>
       </c>
@@ -14501,8 +15176,11 @@
       <c r="S225" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="226" spans="1:19">
+      <c r="T225">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="226" spans="1:20">
       <c r="A226" t="s">
         <v>1</v>
       </c>
@@ -14560,8 +15238,11 @@
       <c r="S226" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="227" spans="1:19">
+      <c r="T226">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="227" spans="1:20">
       <c r="A227" t="s">
         <v>1</v>
       </c>
@@ -14619,8 +15300,11 @@
       <c r="S227" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="228" spans="1:19">
+      <c r="T227">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="228" spans="1:20">
       <c r="A228" t="s">
         <v>1</v>
       </c>
@@ -14678,8 +15362,11 @@
       <c r="S228" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="229" spans="1:19">
+      <c r="T228">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="229" spans="1:20">
       <c r="A229" t="s">
         <v>1</v>
       </c>
@@ -14737,8 +15424,11 @@
       <c r="S229" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="230" spans="1:19">
+      <c r="T229">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="230" spans="1:20">
       <c r="A230" t="s">
         <v>1</v>
       </c>
@@ -14796,8 +15486,11 @@
       <c r="S230" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="231" spans="1:19">
+      <c r="T230">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="231" spans="1:20">
       <c r="A231" t="s">
         <v>1</v>
       </c>
@@ -14855,8 +15548,11 @@
       <c r="S231" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="232" spans="1:19">
+      <c r="T231">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="232" spans="1:20">
       <c r="A232" t="s">
         <v>1</v>
       </c>
@@ -14914,8 +15610,11 @@
       <c r="S232" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="233" spans="1:19">
+      <c r="T232">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="233" spans="1:20">
       <c r="A233" t="s">
         <v>1</v>
       </c>
@@ -14973,8 +15672,11 @@
       <c r="S233" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="234" spans="1:19">
+      <c r="T233">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="234" spans="1:20">
       <c r="A234" t="s">
         <v>1</v>
       </c>
@@ -15032,8 +15734,11 @@
       <c r="S234" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="235" spans="1:19">
+      <c r="T234">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="235" spans="1:20">
       <c r="A235" t="s">
         <v>1</v>
       </c>
@@ -15091,8 +15796,11 @@
       <c r="S235" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="236" spans="1:19">
+      <c r="T235">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="236" spans="1:20">
       <c r="A236" t="s">
         <v>1</v>
       </c>
@@ -15150,8 +15858,11 @@
       <c r="S236" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="237" spans="1:19">
+      <c r="T236">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="237" spans="1:20">
       <c r="A237" t="s">
         <v>1</v>
       </c>
@@ -15209,8 +15920,11 @@
       <c r="S237" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="238" spans="1:19">
+      <c r="T237">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="238" spans="1:20">
       <c r="A238" t="s">
         <v>1</v>
       </c>
@@ -15268,8 +15982,11 @@
       <c r="S238" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="239" spans="1:19">
+      <c r="T238">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="239" spans="1:20">
       <c r="A239" t="s">
         <v>1</v>
       </c>
@@ -15327,8 +16044,11 @@
       <c r="S239" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="240" spans="1:19">
+      <c r="T239">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="240" spans="1:20">
       <c r="A240" t="s">
         <v>1</v>
       </c>
@@ -15386,8 +16106,11 @@
       <c r="S240" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="241" spans="1:19">
+      <c r="T240">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="241" spans="1:20">
       <c r="A241" t="s">
         <v>1</v>
       </c>
@@ -15445,8 +16168,11 @@
       <c r="S241" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="242" spans="1:19">
+      <c r="T241">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="242" spans="1:20">
       <c r="A242" t="s">
         <v>1</v>
       </c>
@@ -15504,8 +16230,11 @@
       <c r="S242" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="243" spans="1:19">
+      <c r="T242">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="243" spans="1:20">
       <c r="A243" t="s">
         <v>1</v>
       </c>
@@ -15563,8 +16292,11 @@
       <c r="S243" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="244" spans="1:19">
+      <c r="T243">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="244" spans="1:20">
       <c r="A244" t="s">
         <v>1</v>
       </c>
@@ -15622,8 +16354,11 @@
       <c r="S244" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="245" spans="1:19">
+      <c r="T244">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="245" spans="1:20">
       <c r="A245" t="s">
         <v>1</v>
       </c>
@@ -15681,8 +16416,11 @@
       <c r="S245" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="246" spans="1:19">
+      <c r="T245">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="246" spans="1:20">
       <c r="A246" t="s">
         <v>1</v>
       </c>
@@ -15740,8 +16478,11 @@
       <c r="S246" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="247" spans="1:19">
+      <c r="T246">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="247" spans="1:20">
       <c r="A247" t="s">
         <v>1</v>
       </c>
@@ -15799,8 +16540,11 @@
       <c r="S247" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="248" spans="1:19">
+      <c r="T247">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="248" spans="1:20">
       <c r="A248" t="s">
         <v>1</v>
       </c>
@@ -15858,8 +16602,11 @@
       <c r="S248" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="249" spans="1:19">
+      <c r="T248">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="249" spans="1:20">
       <c r="A249" t="s">
         <v>1</v>
       </c>
@@ -15917,8 +16664,11 @@
       <c r="S249" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="250" spans="1:19">
+      <c r="T249">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="250" spans="1:20">
       <c r="A250" t="s">
         <v>1</v>
       </c>
@@ -15976,8 +16726,11 @@
       <c r="S250" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="251" spans="1:19">
+      <c r="T250">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="251" spans="1:20">
       <c r="A251" t="s">
         <v>1</v>
       </c>
@@ -16035,8 +16788,11 @@
       <c r="S251" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="252" spans="1:19">
+      <c r="T251">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="252" spans="1:20">
       <c r="A252" t="s">
         <v>1</v>
       </c>
@@ -16094,8 +16850,11 @@
       <c r="S252" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="253" spans="1:19">
+      <c r="T252">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="253" spans="1:20">
       <c r="A253" t="s">
         <v>1</v>
       </c>
@@ -16153,8 +16912,11 @@
       <c r="S253" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="254" spans="1:19">
+      <c r="T253">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="254" spans="1:20">
       <c r="A254" t="s">
         <v>1</v>
       </c>
@@ -16212,8 +16974,11 @@
       <c r="S254" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="255" spans="1:19">
+      <c r="T254">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="255" spans="1:20">
       <c r="A255" t="s">
         <v>1</v>
       </c>
@@ -16271,8 +17036,11 @@
       <c r="S255" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="256" spans="1:19">
+      <c r="T255">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="256" spans="1:20">
       <c r="A256" t="s">
         <v>1</v>
       </c>
@@ -16330,8 +17098,11 @@
       <c r="S256" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="257" spans="1:19">
+      <c r="T256">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="257" spans="1:20">
       <c r="A257" t="s">
         <v>1</v>
       </c>
@@ -16389,8 +17160,11 @@
       <c r="S257" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="258" spans="1:19">
+      <c r="T257">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="258" spans="1:20">
       <c r="A258" t="s">
         <v>1</v>
       </c>
@@ -16448,8 +17222,11 @@
       <c r="S258" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="259" spans="1:19">
+      <c r="T258">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="259" spans="1:20">
       <c r="A259" t="s">
         <v>1</v>
       </c>
@@ -16507,8 +17284,11 @@
       <c r="S259" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="260" spans="1:19">
+      <c r="T259">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="260" spans="1:20">
       <c r="A260" t="s">
         <v>1</v>
       </c>
@@ -16566,8 +17346,11 @@
       <c r="S260" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="261" spans="1:19">
+      <c r="T260">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="261" spans="1:20">
       <c r="A261" t="s">
         <v>1</v>
       </c>
@@ -16625,8 +17408,11 @@
       <c r="S261" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="262" spans="1:19">
+      <c r="T261">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="262" spans="1:20">
       <c r="A262" t="s">
         <v>1</v>
       </c>
@@ -16684,8 +17470,11 @@
       <c r="S262" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="263" spans="1:19">
+      <c r="T262">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="263" spans="1:20">
       <c r="A263" t="s">
         <v>1</v>
       </c>
@@ -16743,8 +17532,11 @@
       <c r="S263" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="264" spans="1:19">
+      <c r="T263">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="264" spans="1:20">
       <c r="A264" t="s">
         <v>1</v>
       </c>
@@ -16802,8 +17594,11 @@
       <c r="S264" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="265" spans="1:19">
+      <c r="T264">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="265" spans="1:20">
       <c r="A265" t="s">
         <v>1</v>
       </c>
@@ -16861,8 +17656,11 @@
       <c r="S265" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="266" spans="1:19">
+      <c r="T265">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="266" spans="1:20">
       <c r="A266" t="s">
         <v>1</v>
       </c>
@@ -16920,8 +17718,11 @@
       <c r="S266" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="267" spans="1:19">
+      <c r="T266">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="267" spans="1:20">
       <c r="A267" t="s">
         <v>1</v>
       </c>
@@ -16979,8 +17780,11 @@
       <c r="S267" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="268" spans="1:19">
+      <c r="T267">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="268" spans="1:20">
       <c r="A268" t="s">
         <v>1</v>
       </c>
@@ -17038,8 +17842,11 @@
       <c r="S268" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="269" spans="1:19">
+      <c r="T268">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="269" spans="1:20">
       <c r="A269" t="s">
         <v>1</v>
       </c>
@@ -17097,8 +17904,11 @@
       <c r="S269" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="270" spans="1:19">
+      <c r="T269">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="270" spans="1:20">
       <c r="A270" t="s">
         <v>1</v>
       </c>
@@ -17156,8 +17966,11 @@
       <c r="S270" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="271" spans="1:19">
+      <c r="T270">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="271" spans="1:20">
       <c r="A271" t="s">
         <v>1</v>
       </c>
@@ -17215,8 +18028,11 @@
       <c r="S271" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="272" spans="1:19">
+      <c r="T271">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="272" spans="1:20">
       <c r="A272" t="s">
         <v>1</v>
       </c>
@@ -17274,8 +18090,11 @@
       <c r="S272" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="273" spans="1:19">
+      <c r="T272">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="273" spans="1:20">
       <c r="A273" t="s">
         <v>1</v>
       </c>
@@ -17333,8 +18152,11 @@
       <c r="S273" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="274" spans="1:19">
+      <c r="T273">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="274" spans="1:20">
       <c r="A274" t="s">
         <v>1</v>
       </c>
@@ -17392,8 +18214,11 @@
       <c r="S274" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="275" spans="1:19">
+      <c r="T274">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="275" spans="1:20">
       <c r="A275" t="s">
         <v>1</v>
       </c>
@@ -17451,8 +18276,11 @@
       <c r="S275" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="276" spans="1:19">
+      <c r="T275">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="276" spans="1:20">
       <c r="A276" t="s">
         <v>1</v>
       </c>
@@ -17510,8 +18338,11 @@
       <c r="S276" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="277" spans="1:19">
+      <c r="T276">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="277" spans="1:20">
       <c r="A277" t="s">
         <v>1</v>
       </c>
@@ -17569,8 +18400,11 @@
       <c r="S277" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="278" spans="1:19">
+      <c r="T277">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="278" spans="1:20">
       <c r="A278" t="s">
         <v>1</v>
       </c>
@@ -17628,8 +18462,11 @@
       <c r="S278" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="279" spans="1:19">
+      <c r="T278">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="279" spans="1:20">
       <c r="A279" t="s">
         <v>1</v>
       </c>
@@ -17687,8 +18524,11 @@
       <c r="S279" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="280" spans="1:19">
+      <c r="T279">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="280" spans="1:20">
       <c r="A280" t="s">
         <v>1</v>
       </c>
@@ -17746,8 +18586,11 @@
       <c r="S280" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="281" spans="1:19">
+      <c r="T280">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="281" spans="1:20">
       <c r="A281" t="s">
         <v>1</v>
       </c>
@@ -17805,8 +18648,11 @@
       <c r="S281" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="282" spans="1:19">
+      <c r="T281">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="282" spans="1:20">
       <c r="A282" t="s">
         <v>1</v>
       </c>
@@ -17864,8 +18710,11 @@
       <c r="S282" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="283" spans="1:19">
+      <c r="T282">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="283" spans="1:20">
       <c r="A283" t="s">
         <v>1</v>
       </c>
@@ -17923,8 +18772,11 @@
       <c r="S283" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="284" spans="1:19">
+      <c r="T283">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="284" spans="1:20">
       <c r="A284" t="s">
         <v>1</v>
       </c>
@@ -17982,8 +18834,11 @@
       <c r="S284" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="285" spans="1:19">
+      <c r="T284">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="285" spans="1:20">
       <c r="A285" t="s">
         <v>1</v>
       </c>
@@ -18041,8 +18896,11 @@
       <c r="S285" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="286" spans="1:19">
+      <c r="T285">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="286" spans="1:20">
       <c r="A286" t="s">
         <v>1</v>
       </c>
@@ -18100,8 +18958,11 @@
       <c r="S286" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="287" spans="1:19">
+      <c r="T286">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="287" spans="1:20">
       <c r="A287" t="s">
         <v>1</v>
       </c>
@@ -18159,8 +19020,11 @@
       <c r="S287" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="288" spans="1:19">
+      <c r="T287">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="288" spans="1:20">
       <c r="A288" t="s">
         <v>1</v>
       </c>
@@ -18218,8 +19082,11 @@
       <c r="S288" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="289" spans="1:19">
+      <c r="T288">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="289" spans="1:20">
       <c r="A289" t="s">
         <v>1</v>
       </c>
@@ -18277,8 +19144,11 @@
       <c r="S289" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="290" spans="1:19">
+      <c r="T289">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="290" spans="1:20">
       <c r="A290" t="s">
         <v>1</v>
       </c>
@@ -18336,8 +19206,11 @@
       <c r="S290" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="291" spans="1:19">
+      <c r="T290">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="291" spans="1:20">
       <c r="A291" t="s">
         <v>1</v>
       </c>
@@ -18395,8 +19268,11 @@
       <c r="S291" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="292" spans="1:19">
+      <c r="T291">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="292" spans="1:20">
       <c r="A292" t="s">
         <v>2</v>
       </c>
@@ -18454,8 +19330,11 @@
       <c r="S292" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="293" spans="1:19">
+      <c r="T292">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="293" spans="1:20">
       <c r="A293" t="s">
         <v>2</v>
       </c>
@@ -18513,8 +19392,11 @@
       <c r="S293" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="294" spans="1:19">
+      <c r="T293">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="294" spans="1:20">
       <c r="A294" t="s">
         <v>2</v>
       </c>
@@ -18572,8 +19454,11 @@
       <c r="S294" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="295" spans="1:19">
+      <c r="T294">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="295" spans="1:20">
       <c r="A295" t="s">
         <v>2</v>
       </c>
@@ -18631,8 +19516,11 @@
       <c r="S295" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="296" spans="1:19">
+      <c r="T295">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="296" spans="1:20">
       <c r="A296" t="s">
         <v>2</v>
       </c>
@@ -18690,8 +19578,11 @@
       <c r="S296" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="297" spans="1:19">
+      <c r="T296">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="297" spans="1:20">
       <c r="A297" t="s">
         <v>2</v>
       </c>
@@ -18749,8 +19640,11 @@
       <c r="S297" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="298" spans="1:19">
+      <c r="T297">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="298" spans="1:20">
       <c r="A298" t="s">
         <v>2</v>
       </c>
@@ -18808,8 +19702,11 @@
       <c r="S298" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="299" spans="1:19">
+      <c r="T298">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="299" spans="1:20">
       <c r="A299" t="s">
         <v>2</v>
       </c>
@@ -18867,8 +19764,11 @@
       <c r="S299" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="300" spans="1:19">
+      <c r="T299">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="300" spans="1:20">
       <c r="A300" t="s">
         <v>2</v>
       </c>
@@ -18926,8 +19826,11 @@
       <c r="S300" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="301" spans="1:19">
+      <c r="T300">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="301" spans="1:20">
       <c r="A301" t="s">
         <v>2</v>
       </c>
@@ -18985,8 +19888,11 @@
       <c r="S301" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="302" spans="1:19">
+      <c r="T301">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="302" spans="1:20">
       <c r="A302" t="s">
         <v>2</v>
       </c>
@@ -19044,8 +19950,11 @@
       <c r="S302" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="303" spans="1:19">
+      <c r="T302">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="303" spans="1:20">
       <c r="A303" t="s">
         <v>2</v>
       </c>
@@ -19103,8 +20012,11 @@
       <c r="S303" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="304" spans="1:19">
+      <c r="T303">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="304" spans="1:20">
       <c r="A304" t="s">
         <v>2</v>
       </c>
@@ -19162,8 +20074,11 @@
       <c r="S304" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="305" spans="1:19">
+      <c r="T304">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="305" spans="1:20">
       <c r="A305" t="s">
         <v>2</v>
       </c>
@@ -19221,8 +20136,11 @@
       <c r="S305" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="306" spans="1:19">
+      <c r="T305">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="306" spans="1:20">
       <c r="A306" t="s">
         <v>2</v>
       </c>
@@ -19280,8 +20198,11 @@
       <c r="S306" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="307" spans="1:19">
+      <c r="T306">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="307" spans="1:20">
       <c r="A307" t="s">
         <v>2</v>
       </c>
@@ -19339,8 +20260,11 @@
       <c r="S307" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="308" spans="1:19">
+      <c r="T307">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="308" spans="1:20">
       <c r="A308" t="s">
         <v>2</v>
       </c>
@@ -19398,8 +20322,11 @@
       <c r="S308" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="309" spans="1:19">
+      <c r="T308">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="309" spans="1:20">
       <c r="A309" t="s">
         <v>2</v>
       </c>
@@ -19457,8 +20384,11 @@
       <c r="S309" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="310" spans="1:19">
+      <c r="T309">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="310" spans="1:20">
       <c r="A310" t="s">
         <v>2</v>
       </c>
@@ -19516,8 +20446,11 @@
       <c r="S310" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="311" spans="1:19">
+      <c r="T310">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="311" spans="1:20">
       <c r="A311" t="s">
         <v>2</v>
       </c>
@@ -19575,8 +20508,11 @@
       <c r="S311" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="312" spans="1:19">
+      <c r="T311">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="312" spans="1:20">
       <c r="A312" t="s">
         <v>2</v>
       </c>
@@ -19634,8 +20570,11 @@
       <c r="S312" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="313" spans="1:19">
+      <c r="T312">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="313" spans="1:20">
       <c r="A313" t="s">
         <v>3</v>
       </c>
@@ -19693,8 +20632,11 @@
       <c r="S313" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="314" spans="1:19">
+      <c r="T313">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="314" spans="1:20">
       <c r="A314" t="s">
         <v>3</v>
       </c>
@@ -19752,8 +20694,11 @@
       <c r="S314" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="315" spans="1:19">
+      <c r="T314">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="315" spans="1:20">
       <c r="A315" t="s">
         <v>3</v>
       </c>
@@ -19811,8 +20756,11 @@
       <c r="S315" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="316" spans="1:19">
+      <c r="T315">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="316" spans="1:20">
       <c r="A316" t="s">
         <v>3</v>
       </c>
@@ -19870,8 +20818,11 @@
       <c r="S316" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="317" spans="1:19">
+      <c r="T316">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="317" spans="1:20">
       <c r="A317" t="s">
         <v>3</v>
       </c>
@@ -19929,8 +20880,11 @@
       <c r="S317" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="318" spans="1:19">
+      <c r="T317">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="318" spans="1:20">
       <c r="A318" t="s">
         <v>3</v>
       </c>
@@ -19988,8 +20942,11 @@
       <c r="S318" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="319" spans="1:19">
+      <c r="T318">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="319" spans="1:20">
       <c r="A319" t="s">
         <v>3</v>
       </c>
@@ -20047,8 +21004,11 @@
       <c r="S319" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="320" spans="1:19">
+      <c r="T319">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="320" spans="1:20">
       <c r="A320" t="s">
         <v>3</v>
       </c>
@@ -20106,8 +21066,11 @@
       <c r="S320" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="321" spans="1:19">
+      <c r="T320">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="321" spans="1:20">
       <c r="A321" t="s">
         <v>3</v>
       </c>
@@ -20165,8 +21128,11 @@
       <c r="S321" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="322" spans="1:19">
+      <c r="T321">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="322" spans="1:20">
       <c r="A322" t="s">
         <v>3</v>
       </c>
@@ -20224,8 +21190,11 @@
       <c r="S322" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="323" spans="1:19">
+      <c r="T322">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="323" spans="1:20">
       <c r="A323" t="s">
         <v>3</v>
       </c>
@@ -20283,8 +21252,11 @@
       <c r="S323" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="324" spans="1:19">
+      <c r="T323">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="324" spans="1:20">
       <c r="A324" t="s">
         <v>3</v>
       </c>
@@ -20342,8 +21314,11 @@
       <c r="S324" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="325" spans="1:19">
+      <c r="T324">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="325" spans="1:20">
       <c r="A325" t="s">
         <v>3</v>
       </c>
@@ -20401,8 +21376,11 @@
       <c r="S325" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="326" spans="1:19">
+      <c r="T325">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="326" spans="1:20">
       <c r="A326" t="s">
         <v>3</v>
       </c>
@@ -20460,8 +21438,11 @@
       <c r="S326" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="327" spans="1:19">
+      <c r="T326">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="327" spans="1:20">
       <c r="A327" t="s">
         <v>3</v>
       </c>
@@ -20519,8 +21500,11 @@
       <c r="S327" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="328" spans="1:19">
+      <c r="T327">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="328" spans="1:20">
       <c r="A328" t="s">
         <v>3</v>
       </c>
@@ -20578,8 +21562,11 @@
       <c r="S328" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="329" spans="1:19">
+      <c r="T328">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="329" spans="1:20">
       <c r="A329" t="s">
         <v>3</v>
       </c>
@@ -20637,8 +21624,11 @@
       <c r="S329" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="330" spans="1:19">
+      <c r="T329">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="330" spans="1:20">
       <c r="A330" t="s">
         <v>3</v>
       </c>
@@ -20696,8 +21686,11 @@
       <c r="S330" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="331" spans="1:19">
+      <c r="T330">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="331" spans="1:20">
       <c r="A331" t="s">
         <v>3</v>
       </c>
@@ -20755,8 +21748,11 @@
       <c r="S331" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="332" spans="1:19">
+      <c r="T331">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="332" spans="1:20">
       <c r="A332" t="s">
         <v>3</v>
       </c>
@@ -20814,8 +21810,11 @@
       <c r="S332" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="333" spans="1:19">
+      <c r="T332">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="333" spans="1:20">
       <c r="A333" t="s">
         <v>3</v>
       </c>
@@ -20873,8 +21872,11 @@
       <c r="S333" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="334" spans="1:19">
+      <c r="T333">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="334" spans="1:20">
       <c r="A334" t="s">
         <v>3</v>
       </c>
@@ -20932,8 +21934,11 @@
       <c r="S334" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="335" spans="1:19">
+      <c r="T334">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="335" spans="1:20">
       <c r="A335" t="s">
         <v>3</v>
       </c>
@@ -20991,8 +21996,11 @@
       <c r="S335" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="336" spans="1:19">
+      <c r="T335">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="336" spans="1:20">
       <c r="A336" t="s">
         <v>3</v>
       </c>
@@ -21050,8 +22058,11 @@
       <c r="S336" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="337" spans="1:19">
+      <c r="T336">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="337" spans="1:20">
       <c r="A337" t="s">
         <v>3</v>
       </c>
@@ -21109,8 +22120,11 @@
       <c r="S337" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="338" spans="1:19">
+      <c r="T337">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="338" spans="1:20">
       <c r="A338" t="s">
         <v>3</v>
       </c>
@@ -21168,8 +22182,11 @@
       <c r="S338" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="339" spans="1:19">
+      <c r="T338">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="339" spans="1:20">
       <c r="A339" t="s">
         <v>3</v>
       </c>
@@ -21227,8 +22244,11 @@
       <c r="S339" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="340" spans="1:19">
+      <c r="T339">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="340" spans="1:20">
       <c r="A340" t="s">
         <v>3</v>
       </c>
@@ -21286,8 +22306,11 @@
       <c r="S340" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="341" spans="1:19">
+      <c r="T340">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="341" spans="1:20">
       <c r="A341" t="s">
         <v>3</v>
       </c>
@@ -21345,8 +22368,11 @@
       <c r="S341" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="342" spans="1:19">
+      <c r="T341">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="342" spans="1:20">
       <c r="A342" t="s">
         <v>3</v>
       </c>
@@ -21404,8 +22430,11 @@
       <c r="S342" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="343" spans="1:19">
+      <c r="T342">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="343" spans="1:20">
       <c r="A343" t="s">
         <v>3</v>
       </c>
@@ -21463,8 +22492,11 @@
       <c r="S343" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="344" spans="1:19">
+      <c r="T343">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="344" spans="1:20">
       <c r="A344" t="s">
         <v>3</v>
       </c>
@@ -21522,8 +22554,11 @@
       <c r="S344" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="345" spans="1:19">
+      <c r="T344">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="345" spans="1:20">
       <c r="A345" t="s">
         <v>3</v>
       </c>
@@ -21581,8 +22616,11 @@
       <c r="S345" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="346" spans="1:19">
+      <c r="T345">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="346" spans="1:20">
       <c r="A346" t="s">
         <v>3</v>
       </c>
@@ -21640,8 +22678,11 @@
       <c r="S346" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="347" spans="1:19">
+      <c r="T346">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="347" spans="1:20">
       <c r="A347" t="s">
         <v>3</v>
       </c>
@@ -21699,8 +22740,11 @@
       <c r="S347" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="348" spans="1:19">
+      <c r="T347">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="348" spans="1:20">
       <c r="A348" t="s">
         <v>3</v>
       </c>
@@ -21758,8 +22802,11 @@
       <c r="S348" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="349" spans="1:19">
+      <c r="T348">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="349" spans="1:20">
       <c r="A349" t="s">
         <v>3</v>
       </c>
@@ -21817,8 +22864,11 @@
       <c r="S349" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="350" spans="1:19">
+      <c r="T349">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="350" spans="1:20">
       <c r="A350" t="s">
         <v>3</v>
       </c>
@@ -21876,8 +22926,11 @@
       <c r="S350" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="351" spans="1:19">
+      <c r="T350">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="351" spans="1:20">
       <c r="A351" t="s">
         <v>3</v>
       </c>
@@ -21935,8 +22988,11 @@
       <c r="S351" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="352" spans="1:19">
+      <c r="T351">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="352" spans="1:20">
       <c r="A352" t="s">
         <v>3</v>
       </c>
@@ -21994,8 +23050,11 @@
       <c r="S352" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="353" spans="1:19">
+      <c r="T352">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="353" spans="1:20">
       <c r="A353" t="s">
         <v>3</v>
       </c>
@@ -22053,8 +23112,11 @@
       <c r="S353" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="354" spans="1:19">
+      <c r="T353">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="354" spans="1:20">
       <c r="A354" t="s">
         <v>3</v>
       </c>
@@ -22112,8 +23174,11 @@
       <c r="S354" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="355" spans="1:19">
+      <c r="T354">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="355" spans="1:20">
       <c r="A355" t="s">
         <v>3</v>
       </c>
@@ -22171,8 +23236,11 @@
       <c r="S355" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="356" spans="1:19">
+      <c r="T355">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="356" spans="1:20">
       <c r="A356" t="s">
         <v>3</v>
       </c>
@@ -22230,8 +23298,11 @@
       <c r="S356" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="357" spans="1:19">
+      <c r="T356">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="357" spans="1:20">
       <c r="A357" t="s">
         <v>3</v>
       </c>
@@ -22289,8 +23360,11 @@
       <c r="S357" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="358" spans="1:19">
+      <c r="T357">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="358" spans="1:20">
       <c r="A358" t="s">
         <v>3</v>
       </c>
@@ -22348,8 +23422,11 @@
       <c r="S358" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="359" spans="1:19">
+      <c r="T358">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="359" spans="1:20">
       <c r="A359" t="s">
         <v>3</v>
       </c>
@@ -22407,8 +23484,11 @@
       <c r="S359" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="360" spans="1:19">
+      <c r="T359">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="360" spans="1:20">
       <c r="A360" t="s">
         <v>3</v>
       </c>
@@ -22466,8 +23546,11 @@
       <c r="S360" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="361" spans="1:19">
+      <c r="T360">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="361" spans="1:20">
       <c r="A361" t="s">
         <v>3</v>
       </c>
@@ -22525,8 +23608,11 @@
       <c r="S361" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="362" spans="1:19">
+      <c r="T361">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="362" spans="1:20">
       <c r="A362" t="s">
         <v>3</v>
       </c>
@@ -22584,8 +23670,11 @@
       <c r="S362" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="363" spans="1:19">
+      <c r="T362">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="363" spans="1:20">
       <c r="A363" t="s">
         <v>3</v>
       </c>
@@ -22643,8 +23732,11 @@
       <c r="S363" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="364" spans="1:19">
+      <c r="T363">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="364" spans="1:20">
       <c r="A364" t="s">
         <v>3</v>
       </c>
@@ -22702,8 +23794,11 @@
       <c r="S364" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="365" spans="1:19">
+      <c r="T364">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="365" spans="1:20">
       <c r="A365" t="s">
         <v>3</v>
       </c>
@@ -22761,8 +23856,11 @@
       <c r="S365" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="366" spans="1:19">
+      <c r="T365">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="366" spans="1:20">
       <c r="A366" t="s">
         <v>3</v>
       </c>
@@ -22820,8 +23918,11 @@
       <c r="S366" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="367" spans="1:19">
+      <c r="T366">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="367" spans="1:20">
       <c r="A367" t="s">
         <v>3</v>
       </c>
@@ -22879,8 +23980,11 @@
       <c r="S367" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="368" spans="1:19">
+      <c r="T367">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="368" spans="1:20">
       <c r="A368" t="s">
         <v>3</v>
       </c>
@@ -22938,8 +24042,11 @@
       <c r="S368" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="369" spans="1:19">
+      <c r="T368">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="369" spans="1:20">
       <c r="A369" t="s">
         <v>3</v>
       </c>
@@ -22997,8 +24104,11 @@
       <c r="S369" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="370" spans="1:19">
+      <c r="T369">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="370" spans="1:20">
       <c r="A370" t="s">
         <v>4</v>
       </c>
@@ -23056,8 +24166,11 @@
       <c r="S370" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="371" spans="1:19">
+      <c r="T370">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="371" spans="1:20">
       <c r="A371" t="s">
         <v>4</v>
       </c>
@@ -23115,8 +24228,11 @@
       <c r="S371" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="372" spans="1:19">
+      <c r="T371">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="372" spans="1:20">
       <c r="A372" t="s">
         <v>4</v>
       </c>
@@ -23174,8 +24290,11 @@
       <c r="S372" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="373" spans="1:19">
+      <c r="T372">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="373" spans="1:20">
       <c r="A373" t="s">
         <v>4</v>
       </c>
@@ -23233,8 +24352,11 @@
       <c r="S373" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="374" spans="1:19">
+      <c r="T373">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="374" spans="1:20">
       <c r="A374" t="s">
         <v>4</v>
       </c>
@@ -23292,8 +24414,11 @@
       <c r="S374" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="375" spans="1:19">
+      <c r="T374">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="375" spans="1:20">
       <c r="A375" t="s">
         <v>4</v>
       </c>
@@ -23351,8 +24476,11 @@
       <c r="S375" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="376" spans="1:19">
+      <c r="T375">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="376" spans="1:20">
       <c r="A376" t="s">
         <v>4</v>
       </c>
@@ -23410,8 +24538,11 @@
       <c r="S376" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="377" spans="1:19">
+      <c r="T376">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="377" spans="1:20">
       <c r="A377" t="s">
         <v>4</v>
       </c>
@@ -23469,8 +24600,11 @@
       <c r="S377" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="378" spans="1:19">
+      <c r="T377">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="378" spans="1:20">
       <c r="A378" t="s">
         <v>4</v>
       </c>
@@ -23528,8 +24662,11 @@
       <c r="S378" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="379" spans="1:19">
+      <c r="T378">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="379" spans="1:20">
       <c r="A379" t="s">
         <v>4</v>
       </c>
@@ -23587,8 +24724,11 @@
       <c r="S379" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="380" spans="1:19">
+      <c r="T379">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="380" spans="1:20">
       <c r="A380" t="s">
         <v>4</v>
       </c>
@@ -23646,8 +24786,11 @@
       <c r="S380" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="381" spans="1:19">
+      <c r="T380">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="381" spans="1:20">
       <c r="A381" t="s">
         <v>4</v>
       </c>
@@ -23705,8 +24848,11 @@
       <c r="S381" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="382" spans="1:19">
+      <c r="T381">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="382" spans="1:20">
       <c r="A382" t="s">
         <v>5</v>
       </c>
@@ -23764,8 +24910,11 @@
       <c r="S382" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="383" spans="1:19">
+      <c r="T382">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="383" spans="1:20">
       <c r="A383" t="s">
         <v>5</v>
       </c>
@@ -23823,8 +24972,11 @@
       <c r="S383" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="384" spans="1:19">
+      <c r="T383">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="384" spans="1:20">
       <c r="A384" t="s">
         <v>5</v>
       </c>
@@ -23882,8 +25034,11 @@
       <c r="S384" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="385" spans="1:19">
+      <c r="T384">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="385" spans="1:20">
       <c r="A385" t="s">
         <v>5</v>
       </c>
@@ -23941,8 +25096,11 @@
       <c r="S385" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="386" spans="1:19">
+      <c r="T385">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="386" spans="1:20">
       <c r="A386" t="s">
         <v>5</v>
       </c>
@@ -24000,8 +25158,11 @@
       <c r="S386" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="387" spans="1:19">
+      <c r="T386">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="387" spans="1:20">
       <c r="A387" t="s">
         <v>5</v>
       </c>
@@ -24059,8 +25220,11 @@
       <c r="S387" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="388" spans="1:19">
+      <c r="T387">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="388" spans="1:20">
       <c r="A388" t="s">
         <v>6</v>
       </c>
@@ -24118,8 +25282,11 @@
       <c r="S388" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="389" spans="1:19">
+      <c r="T388">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="389" spans="1:20">
       <c r="A389" t="s">
         <v>6</v>
       </c>
@@ -24177,8 +25344,11 @@
       <c r="S389" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="390" spans="1:19">
+      <c r="T389">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="390" spans="1:20">
       <c r="A390" t="s">
         <v>6</v>
       </c>
@@ -24236,8 +25406,11 @@
       <c r="S390" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="391" spans="1:19">
+      <c r="T390">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="391" spans="1:20">
       <c r="A391" t="s">
         <v>6</v>
       </c>
@@ -24295,8 +25468,11 @@
       <c r="S391" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="392" spans="1:19">
+      <c r="T391">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="392" spans="1:20">
       <c r="A392" t="s">
         <v>7</v>
       </c>
@@ -24354,8 +25530,11 @@
       <c r="S392" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="393" spans="1:19">
+      <c r="T392">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="393" spans="1:20">
       <c r="A393" t="s">
         <v>7</v>
       </c>
@@ -24413,8 +25592,11 @@
       <c r="S393" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="394" spans="1:19">
+      <c r="T393">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="394" spans="1:20">
       <c r="A394" t="s">
         <v>8</v>
       </c>
@@ -24472,8 +25654,11 @@
       <c r="S394" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="395" spans="1:19">
+      <c r="T394">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="395" spans="1:20">
       <c r="A395" t="s">
         <v>8</v>
       </c>
@@ -24531,8 +25716,11 @@
       <c r="S395" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="396" spans="1:19">
+      <c r="T395">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="396" spans="1:20">
       <c r="A396" t="s">
         <v>8</v>
       </c>
@@ -24590,8 +25778,11 @@
       <c r="S396" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="397" spans="1:19">
+      <c r="T396">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="397" spans="1:20">
       <c r="A397" t="s">
         <v>8</v>
       </c>
@@ -24649,8 +25840,11 @@
       <c r="S397" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="398" spans="1:19">
+      <c r="T397">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="398" spans="1:20">
       <c r="A398" t="s">
         <v>8</v>
       </c>
@@ -24708,8 +25902,11 @@
       <c r="S398" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="399" spans="1:19">
+      <c r="T398">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="399" spans="1:20">
       <c r="A399" t="s">
         <v>8</v>
       </c>
@@ -24767,8 +25964,11 @@
       <c r="S399" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="400" spans="1:19">
+      <c r="T399">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="400" spans="1:20">
       <c r="A400" t="s">
         <v>8</v>
       </c>
@@ -24826,8 +26026,11 @@
       <c r="S400" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="401" spans="1:19">
+      <c r="T400">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="401" spans="1:20">
       <c r="A401" t="s">
         <v>8</v>
       </c>
@@ -24885,8 +26088,11 @@
       <c r="S401" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="402" spans="1:19">
+      <c r="T401">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="402" spans="1:20">
       <c r="A402" t="s">
         <v>8</v>
       </c>
@@ -24944,8 +26150,11 @@
       <c r="S402" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="403" spans="1:19">
+      <c r="T402">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="403" spans="1:20">
       <c r="A403" t="s">
         <v>8</v>
       </c>
@@ -25003,8 +26212,12 @@
       <c r="S403" t="s">
         <v>275</v>
       </c>
+      <c r="T403">
+        <v>568</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:T403" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>